--- a/TimeLine Brief.xlsx
+++ b/TimeLine Brief.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LewisH\Documents\GitHub\Collage-Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LewisH\Documents\GitHub\College-Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{741B6395-4FA0-472D-AA82-E94DCF5C56A2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F87B54-6829-47C0-82AA-9138EBE34C84}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{7498BFC9-BC68-4BAA-BED1-F9508F4E14BC}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="12">
   <si>
     <t>Activity</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Render</t>
+  </si>
+  <si>
+    <t>Mind-map</t>
   </si>
 </sst>
 </file>
@@ -118,12 +121,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B16CDE29-8F45-4569-A631-13FCC178EE46}">
-  <dimension ref="B3:AD14"/>
+  <dimension ref="B3:AD15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,82 +548,89 @@
     </row>
     <row r="5" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
     </row>
     <row r="11" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y12" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
     </row>
     <row r="13" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y13" s="4"/>
     </row>
     <row r="14" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y14" s="4"/>
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TimeLine Brief.xlsx
+++ b/TimeLine Brief.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LewisH\Documents\GitHub\College-Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F87B54-6829-47C0-82AA-9138EBE34C84}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF3859E-AAA8-4BFF-A8A0-C069B0AA1E0E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{7498BFC9-BC68-4BAA-BED1-F9508F4E14BC}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Activity</t>
   </si>
@@ -89,7 +89,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,6 +108,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -121,13 +127,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,7 +452,7 @@
   <dimension ref="B3:AD15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,7 +557,7 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.25">

--- a/TimeLine Brief.xlsx
+++ b/TimeLine Brief.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LewisH\Documents\GitHub\College-Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF3859E-AAA8-4BFF-A8A0-C069B0AA1E0E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A65712B-CDCD-479B-97D5-58D0EAC1D174}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{7498BFC9-BC68-4BAA-BED1-F9508F4E14BC}"/>
   </bookViews>
@@ -89,18 +89,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -127,14 +121,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B16CDE29-8F45-4569-A631-13FCC178EE46}">
   <dimension ref="B3:AD15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,87 +550,87 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
     </row>
     <row r="13" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="Y13" s="4"/>
+      <c r="Y13" s="3"/>
     </row>
     <row r="14" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="Y14" s="4"/>
+      <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
